--- a/Resources/Amazon.xlsx
+++ b/Resources/Amazon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\eclipse-workspace-mkt\final_Project\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D020B9-7602-4DF5-92AB-5F264DDA8DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3D1671-045F-4DB0-83E6-5EA9274C8AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5115" yWindow="2745" windowWidth="15375" windowHeight="8325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,7 +736,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
